--- a/角色——功能表.xlsx
+++ b/角色——功能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>小医在线角色——功能表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诊断查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断记录查新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线咨询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看患者来访记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级信誉查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +147,102 @@
   </si>
   <si>
     <t>第三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择药品是否配送时支付费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者可查看药品配送的详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断记录查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看账户余额以及其他基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询该软件基本功能，使用向导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看主要信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线两种预约方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现患者与医生一对一交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过问卷和医生的在线咨询，完成诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成诊断或治疗一段时间后，患者对医生的客观评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在注册时完成，由所属医院认证并管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看患者就诊记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过治愈患者人数的累计和患者评价实现信誉查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过医疗机构对医生进行效绩发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者和医生的总注册量、医疗机构加盟数量……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构入驻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看患者、医生等反馈的信息，便于软件优化和更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理后台数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,6 +413,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,39 +453,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,322 +756,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="7" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9" t="s">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A23:B27"/>
-    <mergeCell ref="A28:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A13:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="39">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A30:B33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A3:B11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A12:B21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
